--- a/biology/Zoologie/Anablepsoides/Anablepsoides.xlsx
+++ b/biology/Zoologie/Anablepsoides/Anablepsoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anablepsoides est un genre de poissons du bassin de l'Amazone, il contient 56 espèces[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anablepsoides est un genre de poissons du bassin de l'Amazone, il contient 56 espèces.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon FishBase:
 Anablepsoides amanan (W. J. E. M. Costa &amp; Lazzarotto, 2008)
@@ -520,56 +534,56 @@
 Anablepsoides bahianus (Huber, 1990)
 Anablepsoides beniensis (G. S. Myers, 1927)
 Anablepsoides bondi (L. P. Schultz, 1949)
-Anablepsoides cajariensis (W. J. E. M. Costa &amp; de Luca, 2011)[2]
+Anablepsoides cajariensis (W. J. E. M. Costa &amp; de Luca, 2011)
 Anablepsoides caurae (Radda, 2004)
 Anablepsoides cearensis (W. J. E. M. Costa &amp; Vono, 2009)
-Anablepsoides chapare Valdesalici (sv) &amp; García-Gil, 2017[3]
+Anablepsoides chapare Valdesalici (sv) &amp; García-Gil, 2017
 Anablepsoides christinae (Huber, 1992)
-Anablepsoides corpulentus (Thomerson &amp; Taphorn, 1993)[3]
+Anablepsoides corpulentus (Thomerson &amp; Taphorn, 1993)
 Anablepsoides cryptocallus (Seegers, 1980)
 Anablepsoides deltaphilus (Seegers, 1983)
 Anablepsoides derhami (Fels &amp; Huber, 1985)
 Anablepsoides elongatus (Fels &amp; de Rham, 1981)
 Anablepsoides erberi (Berkenkamp, 1989)
-Anablepsoides fransvermeuleni Valdesalici (sv), 2015[4]
-Anablepsoides gamae W. J. E. M. Costa, Bragança &amp; Amorim, 2013[5]
+Anablepsoides fransvermeuleni Valdesalici (sv), 2015
+Anablepsoides gamae W. J. E. M. Costa, Bragança &amp; Amorim, 2013
 Anablepsoides gaucheri (Keith, Nandrin &amp; Le Bail, 2006)
 Anablepsoides hartii (Boulenger, 1890)
-Anablepsoides henschelae W. J. E. M. Costa, Bragança &amp; Amorim, 2013[5]
-Anablepsoides hoetmeri D. T. B. Nielsen, Baptista &amp; van der Berg, 2016[6]
+Anablepsoides henschelae W. J. E. M. Costa, Bragança &amp; Amorim, 2013
+Anablepsoides hoetmeri D. T. B. Nielsen, Baptista &amp; van der Berg, 2016
 Anablepsoides holmiae (C. H. Eigenmann, 1909)
 Anablepsoides igneus (Huber, 1991)
 Anablepsoides immaculatus (Thomerson, Nico &amp; Taphorn, 1991)
 Anablepsoides intermittens (Fels &amp; de Rham, 1981)
 Anablepsoides iridescens (Fels &amp; de Rham, 1981)
-Anablepsoides jari W. J. E. M. Costa, Bragança &amp; Amorim, 2013[5]
+Anablepsoides jari W. J. E. M. Costa, Bragança &amp; Amorim, 2013
 Anablepsoides jucundus (Huber, 1992)
 Anablepsoides lanceolatus (C. H. Eigenmann, 1909)
 Anablepsoides limoncochae (Hoedeman, 1962)
-Anablepsoides lineasoppilatae Valdesalici (sv) &amp; I. Schindler, 2013[7]
-Anablepsoides luitalimae D. T. B. Nielsen, 2016[8]
+Anablepsoides lineasoppilatae Valdesalici (sv) &amp; I. Schindler, 2013
+Anablepsoides luitalimae D. T. B. Nielsen, 2016
 Anablepsoides lungi (Berkenkamp, 1984)
 Anablepsoides mazaruni (G. S. Myers, 1924)
 Anablepsoides micropus (Steindachner, 1863)
 Anablepsoides monticola (Staeck &amp; I. Schindler, 1997)
 Anablepsoides ophiomimus (Huber, 1992)
 Anablepsoides ornatus (Garman, 1895)
-Anablepsoides ottonii W. J. E. M. Costa, Bragança &amp; Amorim, 2013[5]
-Anablepsoides parlettei (Valdesalici (sv) &amp; I. Schindler, 2011)[9]
+Anablepsoides ottonii W. J. E. M. Costa, Bragança &amp; Amorim, 2013
+Anablepsoides parlettei (Valdesalici (sv) &amp; I. Schindler, 2011)
 Anablepsoides peruanus (Regan, 1903)
-Anablepsoides roraima W. J. E. M. Costa, Bragança &amp; Amorim, 2013[5]
+Anablepsoides roraima W. J. E. M. Costa, Bragança &amp; Amorim, 2013
 Anablepsoides rubrolineatus (Fels &amp; de Rham, 1981)
 Anablepsoides speciosus (Fels &amp; de Rham, 1981)
 Anablepsoides stagnatus (C. H. Eigenmann, 1909)
 Anablepsoides taeniatus (Fowler, 1945)
 Anablepsoides tessellatus (Huber, 1992)
-Anablepsoides tocantinensis (W. J. E. M. Costa, 2010)[10]
+Anablepsoides tocantinensis (W. J. E. M. Costa, 2010)
 Anablepsoides urophthalmus (Günther, 1866)
-Anablepsoides urubuiensis W. J. E. M. Costa, 2013[11]
-Anablepsoides vieirai D. T. B. Nielsen, 2016[8]
+Anablepsoides urubuiensis W. J. E. M. Costa, 2013
+Anablepsoides vieirai D. T. B. Nielsen, 2016
 Anablepsoides waimacui (C. H. Eigenmann, 1909)
 Anablepsoides xanthonotus (C. G. E. Ahl, 1926)
-Anablepsoides xinguensis (W. J. E. M. Costa, 2010)[10]
+Anablepsoides xinguensis (W. J. E. M. Costa, 2010)
 </t>
         </is>
       </c>
